--- a/Richard/Activity Log.xlsx
+++ b/Richard/Activity Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rami\Documents\GitHub\Hex-Decoder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rremi\Desktop\ECE 366\Hex-Decoder\Richard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50A3C0E-A584-4D89-88A2-45097801A515}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527C3DE-0CA8-4380-AAD8-1668079D96D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{0F5DC705-85FB-4EAC-8F72-74DC7DEA8333}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F5DC705-85FB-4EAC-8F72-74DC7DEA8333}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Date/Location</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Members</t>
   </si>
   <si>
-    <t>Tuesday 6:00 PM - 8:00 PM</t>
-  </si>
-  <si>
     <t>Outlined decoder alogrithm</t>
   </si>
   <si>
@@ -51,34 +48,70 @@
     <t>Richard, Syed</t>
   </si>
   <si>
-    <t>Wednesday 6:00 PM - 9:15 PM</t>
-  </si>
-  <si>
     <t>Add instruction conversion for sub, and</t>
   </si>
   <si>
-    <t>Added 1 function for two's comp, more instruction conversions for branches</t>
-  </si>
-  <si>
-    <t>Friday 6:00 PM - 2:00 AM</t>
-  </si>
-  <si>
-    <t>Do more instruction conversion (sll and srl)</t>
-  </si>
-  <si>
     <t>Fix srl functionality</t>
   </si>
   <si>
     <t>Rami</t>
   </si>
   <si>
-    <t>Satuday 12:00PM - 2:00 PM</t>
-  </si>
-  <si>
     <t>Understanding the program/ Looking over case 4</t>
   </si>
   <si>
     <t>Fixed offset on Lw and sw instructions. Fixing other potential issues</t>
+  </si>
+  <si>
+    <t>Tuesday (2/19/19) 6:00 PM - 8:00 PM</t>
+  </si>
+  <si>
+    <t>Wednesday (2/20/19) 6:00 PM - 9:15 PM</t>
+  </si>
+  <si>
+    <t>Friday (2/22/19) 6:00 PM - 2:00 AM</t>
+  </si>
+  <si>
+    <t>Added 1 function for two's comp, more instruction conversions for branches, finished test case 1</t>
+  </si>
+  <si>
+    <t>Finished test case 2, do more instruction conversion (sll and srl)</t>
+  </si>
+  <si>
+    <t>Satuday (2/23/19) 12:00PM - 2:00 PM</t>
+  </si>
+  <si>
+    <t>Fixed srl functionality</t>
+  </si>
+  <si>
+    <t>Finish test case 3, make a printing function</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Monday (2/25/19) 6:00 PM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>Sunday (2/24/19) 4:00 PM - 5:00 PM</t>
+  </si>
+  <si>
+    <t>Finished test case 3, implemented printing function to output file, added sw and lw functionality</t>
+  </si>
+  <si>
+    <t>Finish up test case 4</t>
+  </si>
+  <si>
+    <t>Tuesday (2/26/19) 1:30 PM - 2:30 PM</t>
+  </si>
+  <si>
+    <t>Finished test case 4, accomodated lw and sw for output file</t>
+  </si>
+  <si>
+    <t>Test the decoder using Project 1 code</t>
+  </si>
+  <si>
+    <t>Tuesday (2/26/19) 6:00 PM - PM</t>
   </si>
 </sst>
 </file>
@@ -444,22 +477,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CA3FDB-D763-4CE5-9DE9-DF6F5D651576}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="60" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.86328125" style="1"/>
+    <col min="4" max="4" width="34.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,60 +506,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Richard/Activity Log.xlsx
+++ b/Richard/Activity Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rremi\Desktop\ECE 366\Hex-Decoder\Richard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527C3DE-0CA8-4380-AAD8-1668079D96D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08A30DF-64C2-4588-951B-DE44ACE9F0F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F5DC705-85FB-4EAC-8F72-74DC7DEA8333}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Date/Location</t>
   </si>
@@ -111,7 +111,13 @@
     <t>Test the decoder using Project 1 code</t>
   </si>
   <si>
-    <t>Tuesday (2/26/19) 6:00 PM - PM</t>
+    <t>Tuesday (2/26/19) 6:00 PM - 3:00 AM</t>
+  </si>
+  <si>
+    <t>Fixed debugging issues, ran PRPG program successfully</t>
+  </si>
+  <si>
+    <t>Test the decoder using Project 1 code part 2</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,6 +614,15 @@
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Richard/Activity Log.xlsx
+++ b/Richard/Activity Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rremi\Desktop\ECE 366\Hex-Decoder\Richard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjkbo\Desktop\Hex-Decoder\Richard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08A30DF-64C2-4588-951B-DE44ACE9F0F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA8155F-781B-442B-8DC1-FEA76CBE3B92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F5DC705-85FB-4EAC-8F72-74DC7DEA8333}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F5DC705-85FB-4EAC-8F72-74DC7DEA8333}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Date/Location</t>
   </si>
@@ -118,6 +118,39 @@
   </si>
   <si>
     <t>Test the decoder using Project 1 code part 2</t>
+  </si>
+  <si>
+    <t>Test the decoder for the hamming distances</t>
+  </si>
+  <si>
+    <t>Syed</t>
+  </si>
+  <si>
+    <t>Wednesday (2/27/19) 6:00 PM - 11:00 PM</t>
+  </si>
+  <si>
+    <t>Fixed the 32bit and 16 bit two's Complement</t>
+  </si>
+  <si>
+    <t>Fixed sll, slt functionality</t>
+  </si>
+  <si>
+    <t>Syed, Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test cases </t>
+  </si>
+  <si>
+    <t>Made sure it runs for all the given test cases for PRGP</t>
+  </si>
+  <si>
+    <t>Thursday (2/27/19) 1:00 PM - 8:00 PM</t>
+  </si>
+  <si>
+    <t>Thursday (2/27/19) 8:00 PM - 10:00 PM</t>
+  </si>
+  <si>
+    <t>Made up test cases 1B and 2B</t>
   </si>
 </sst>
 </file>
@@ -483,22 +516,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CA3FDB-D763-4CE5-9DE9-DF6F5D651576}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="60.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.08984375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -526,7 +559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -540,7 +573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -554,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -568,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -582,7 +615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -596,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -610,7 +643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -622,6 +655,59 @@
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Richard/Activity Log.xlsx
+++ b/Richard/Activity Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rremi\Desktop\ECE 366\Hex-Decoder\Richard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08A30DF-64C2-4588-951B-DE44ACE9F0F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2160BAB1-00F5-4933-A8E7-5D38943481AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F5DC705-85FB-4EAC-8F72-74DC7DEA8333}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Date/Location</t>
   </si>
@@ -118,6 +118,30 @@
   </si>
   <si>
     <t>Test the decoder using Project 1 code part 2</t>
+  </si>
+  <si>
+    <t>Wednesday (2/27/19) 6:00 PM - 3:30 AM</t>
+  </si>
+  <si>
+    <t>Fixing sll instruction, get Project 1 hamming weight and distance to work</t>
+  </si>
+  <si>
+    <t>Continue the activity</t>
+  </si>
+  <si>
+    <t>Wednesday (2/27/19) 6:00 PM - 10:30 PM</t>
+  </si>
+  <si>
+    <t>Richard, Syed, Rami</t>
+  </si>
+  <si>
+    <t>Thursday (2/28/19) 6:00 PM - 11:59 PM</t>
+  </si>
+  <si>
+    <t>Finish the project, clean source folders, write lab reports</t>
+  </si>
+  <si>
+    <t>Turn in project</t>
   </si>
 </sst>
 </file>
@@ -483,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CA3FDB-D763-4CE5-9DE9-DF6F5D651576}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,6 +648,48 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Richard/Activity Log.xlsx
+++ b/Richard/Activity Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjkbo\Desktop\Hex-Decoder\Richard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA8155F-781B-442B-8DC1-FEA76CBE3B92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E210295-1B8E-4A6E-8328-75FFD300373C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F5DC705-85FB-4EAC-8F72-74DC7DEA8333}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     <t>Thursday (2/27/19) 8:00 PM - 10:00 PM</t>
   </si>
   <si>
-    <t>Made up test cases 1B and 2B</t>
+    <t>Made up test cases 1B,2B and did the instruction count</t>
   </si>
 </sst>
 </file>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CA3FDB-D763-4CE5-9DE9-DF6F5D651576}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
